--- a/hebrewOutputs/hebrew82Comperation_8_Common_alpha=0.16.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_8_Common_alpha=0.16.xlsx
@@ -34,24 +34,27 @@
     <t>trans</t>
   </si>
   <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>הורה:</t>
+  </si>
+  <si>
+    <t>שלום,</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>בסדר.</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>הורה:</t>
-  </si>
-  <si>
-    <t>שלום,</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>בסדר.</t>
-  </si>
-  <si>
     <t>בוקר טוב. נעים מאד, דוק.</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>bc</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>כאבה לו הבטן אז הבאנו אותו לפה ובטח הוא קצת התייבש.</t>
   </si>
   <si>
@@ -142,9 +148,6 @@
     <t xml:space="preserve">לא יודעת מה מחזיקים אותנו פה. </t>
   </si>
   <si>
-    <t>disagree</t>
-  </si>
-  <si>
     <t>לא מחזיקים אתכם</t>
   </si>
   <si>
@@ -152,9 +155,6 @@
   </si>
   <si>
     <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>כאבי בטן קצת בחילות,</t>
@@ -786,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -808,13 +808,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -822,13 +822,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -850,13 +850,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -878,13 +878,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -892,13 +892,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -906,13 +906,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -920,13 +920,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -962,13 +962,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -976,13 +976,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1175,10 +1175,10 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1203,10 +1203,10 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1217,10 +1217,10 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1231,10 +1231,10 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1245,10 +1245,10 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -1262,7 +1262,7 @@
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1270,13 +1270,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1290,7 +1290,7 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1304,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1315,10 +1315,10 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1329,10 +1329,10 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1343,10 +1343,10 @@
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1357,10 +1357,10 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1371,10 +1371,10 @@
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1385,10 +1385,10 @@
         <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -1399,10 +1399,10 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -1416,7 +1416,7 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1430,7 +1430,7 @@
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -1441,10 +1441,10 @@
         <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1455,10 +1455,10 @@
         <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1486,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -1497,10 +1497,10 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1511,10 +1511,10 @@
         <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -1525,10 +1525,10 @@
         <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -1539,10 +1539,10 @@
         <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1553,10 +1553,10 @@
         <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -1570,7 +1570,7 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1581,10 +1581,10 @@
         <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -1595,10 +1595,10 @@
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1609,10 +1609,10 @@
         <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1623,10 +1623,10 @@
         <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -1637,10 +1637,10 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1654,7 +1654,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1665,7 +1665,7 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1679,10 +1679,10 @@
         <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1693,10 +1693,10 @@
         <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -1707,10 +1707,10 @@
         <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1721,10 +1721,10 @@
         <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -1735,10 +1735,10 @@
         <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -1752,7 +1752,7 @@
         <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
@@ -1766,7 +1766,7 @@
         <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1780,7 +1780,7 @@
         <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -1791,10 +1791,10 @@
         <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -1808,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -1819,10 +1819,10 @@
         <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1836,7 +1836,7 @@
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1850,7 +1850,7 @@
         <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -1861,10 +1861,10 @@
         <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1875,10 +1875,10 @@
         <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -1892,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1906,7 +1906,7 @@
         <v>105</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -1917,10 +1917,10 @@
         <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -1934,7 +1934,7 @@
         <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -1945,10 +1945,10 @@
         <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -1959,10 +1959,10 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -1973,10 +1973,10 @@
         <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -1990,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2004,7 +2004,7 @@
         <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -2015,10 +2015,10 @@
         <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -2046,7 +2046,7 @@
         <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2060,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -2071,10 +2071,10 @@
         <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2088,7 +2088,7 @@
         <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2099,10 +2099,10 @@
         <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -2113,10 +2113,10 @@
         <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -2130,7 +2130,7 @@
         <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -2141,10 +2141,10 @@
         <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -2155,10 +2155,10 @@
         <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -2169,10 +2169,10 @@
         <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2183,10 +2183,10 @@
         <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
@@ -2197,10 +2197,10 @@
         <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -2211,10 +2211,10 @@
         <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -2225,10 +2225,10 @@
         <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -2239,10 +2239,10 @@
         <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -2253,10 +2253,10 @@
         <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2267,10 +2267,10 @@
         <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
